--- a/report_activity_logs.xlsx
+++ b/report_activity_logs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -38,25 +38,361 @@
     <t>วันที่</t>
   </si>
   <si>
+    <t>aomsin12</t>
+  </si>
+  <si>
+    <t>ธนาคาร</t>
+  </si>
+  <si>
+    <t>ตั้งค่าการถอน</t>
+  </si>
+  <si>
+    <t>ตั้งค่าถอนขั้นต่ำ เป็น : 1</t>
+  </si>
+  <si>
+    <t>24/11/2021 16:24</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>เข้าสู่ระบบ</t>
+  </si>
+  <si>
+    <t>24/11/2021 16:16</t>
+  </si>
+  <si>
+    <t>58mo7867142</t>
+  </si>
+  <si>
+    <t>สมาชิก</t>
+  </si>
+  <si>
+    <t>รายงานสมาชิก</t>
+  </si>
+  <si>
+    <t>รีเซ็ตรหัสผ่าน</t>
+  </si>
+  <si>
+    <t>24/11/2021 16:00</t>
+  </si>
+  <si>
+    <t>day12</t>
+  </si>
+  <si>
+    <t>ตั้งค่าการมองเห็น</t>
+  </si>
+  <si>
+    <t>อัพเดทการมองเห็นธนาคาร</t>
+  </si>
+  <si>
+    <t>24/11/2021 15:47</t>
+  </si>
+  <si>
+    <t>24/11/2021 15:46</t>
+  </si>
+  <si>
+    <t>58mo6364608</t>
+  </si>
+  <si>
+    <t>EDIT ข้อมูล</t>
+  </si>
+  <si>
+    <t>24/11/2021 15:35</t>
+  </si>
+  <si>
+    <t>24/11/2021 15:21</t>
+  </si>
+  <si>
+    <t>24/11/2021 15:16</t>
+  </si>
+  <si>
+    <t>24/11/2021 15:14</t>
+  </si>
+  <si>
+    <t>พนักงาน</t>
+  </si>
+  <si>
+    <t>รอบทำงาน</t>
+  </si>
+  <si>
+    <t>แก้ไขรอบทำงาน</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:55</t>
+  </si>
+  <si>
+    <t>เพิ่มรอบทำงาน</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:46</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:38</t>
+  </si>
+  <si>
+    <t>ข้อมูลพนักงาน</t>
+  </si>
+  <si>
+    <t>เพิ่มแอดมิน : asdasdda@12iwinr</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:37</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:36</t>
+  </si>
+  <si>
+    <t>Safe Code</t>
+  </si>
+  <si>
+    <t>ปิด safe code : xxx111</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:35</t>
+  </si>
+  <si>
+    <t>เปิด safe code : xxx111</t>
+  </si>
+  <si>
+    <t>สุ่ม safe code : xxx111</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:34</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:18</t>
+  </si>
+  <si>
+    <t>เพิ่มแอดมิน : asdsdads@12iwinr</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:17</t>
+  </si>
+  <si>
+    <t>แก้ไขสิทธิ๋ : aomsin1dasd@12iwinr</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:16</t>
+  </si>
+  <si>
+    <t>เพิ่มแอดมิน : aomsin1dasd@12iwinr</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:14</t>
+  </si>
+  <si>
+    <t>เพิ่มแอดมิน : aaaaaadasad@12iwinr</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:11</t>
+  </si>
+  <si>
+    <t>เพิ่มแอดมิน : aaaa1@12iwinr</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:10</t>
+  </si>
+  <si>
+    <t>เพิ่มแอดมิน : aaaa@12iwinr</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:09</t>
+  </si>
+  <si>
+    <t>จัดการธนาคาร</t>
+  </si>
+  <si>
+    <t>อัพเดทสถานะ</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:05</t>
+  </si>
+  <si>
+    <t>แก้ไขสถานะ : xxx111</t>
+  </si>
+  <si>
+    <t>รีเซ็ต รหัสผ่าน : xxx111</t>
+  </si>
+  <si>
+    <t>รีเซ็ต 2FT : xxx111</t>
+  </si>
+  <si>
+    <t>แก้ไขข้อมูล : xxx111</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:04</t>
+  </si>
+  <si>
+    <t>แก้ไขสิทธิ๋ : xxx111</t>
+  </si>
+  <si>
+    <t>24/11/2021 14:00</t>
+  </si>
+  <si>
+    <t>24/11/2021 13:53</t>
+  </si>
+  <si>
+    <t>update ระบบอัติโนมัต</t>
+  </si>
+  <si>
+    <t>24/11/2021 13:51</t>
+  </si>
+  <si>
+    <t>24/11/2021 13:47</t>
+  </si>
+  <si>
+    <t>24/11/2021 13:03</t>
+  </si>
+  <si>
+    <t>test03@12iwinr</t>
+  </si>
+  <si>
+    <t>24/11/2021 12:53</t>
+  </si>
+  <si>
+    <t>58mo5398862</t>
+  </si>
+  <si>
+    <t>โปรโมชั่น</t>
+  </si>
+  <si>
+    <t>รับโปรโมชัน Manaul</t>
+  </si>
+  <si>
+    <t>ยกเลิกโปรโมชั่น</t>
+  </si>
+  <si>
+    <t>24/11/2021 11:16</t>
+  </si>
+  <si>
+    <t>24/11/2021 11:15</t>
+  </si>
+  <si>
+    <t>24/11/2021 11:01</t>
+  </si>
+  <si>
+    <t>24/11/2021 10:58</t>
+  </si>
+  <si>
+    <t>โปรโมชัน</t>
+  </si>
+  <si>
+    <t>แก้ไข : ทดสอบฝากเฉพาะวัน อังคาร พฤหัสบดี ศุกร์</t>
+  </si>
+  <si>
+    <t>24/11/2021 10:42</t>
+  </si>
+  <si>
+    <t>58mo7452422</t>
+  </si>
+  <si>
+    <t>ข้อผิดพลาด</t>
+  </si>
+  <si>
+    <t>แก้ไขข้อผิดพลาด</t>
+  </si>
+  <si>
+    <t>เพิ่มเครดิต</t>
+  </si>
+  <si>
+    <t>24/11/2021 10:39</t>
+  </si>
+  <si>
+    <t>24/11/2021 10:38</t>
+  </si>
+  <si>
+    <t>ตัดเครดิต</t>
+  </si>
+  <si>
+    <t>24/11/2021 10:31</t>
+  </si>
+  <si>
+    <t>24/11/2021 10:24</t>
+  </si>
+  <si>
+    <t>24/11/2021 10:22</t>
+  </si>
+  <si>
+    <t>24/11/2021 10:12</t>
+  </si>
+  <si>
+    <t>24/11/2021 10:03</t>
+  </si>
+  <si>
+    <t>24/11/2021 09:44</t>
+  </si>
+  <si>
+    <t>24/11/2021 09:28</t>
+  </si>
+  <si>
+    <t>24/11/2021 09:24</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>จัดการ Broadcast</t>
+  </si>
+  <si>
+    <t>แก้ไข Broadcast : asdasd</t>
+  </si>
+  <si>
+    <t>24/11/2021 09:20</t>
+  </si>
+  <si>
+    <t>แก้ไข Broadcast : adasdasd</t>
+  </si>
+  <si>
+    <t>start ระบบอัติโนมัต</t>
+  </si>
+  <si>
+    <t>24/11/2021 09:14</t>
+  </si>
+  <si>
+    <t>stop ระบบอัติโนมัต</t>
+  </si>
+  <si>
+    <t>24/11/2021 09:13</t>
+  </si>
+  <si>
+    <t>be12</t>
+  </si>
+  <si>
+    <t>24/11/2021 09:11</t>
+  </si>
+  <si>
+    <t>58mo9971620</t>
+  </si>
+  <si>
+    <t>24/11/2021 09:10</t>
+  </si>
+  <si>
+    <t>24/11/2021 08:55</t>
+  </si>
+  <si>
+    <t>24/11/2021 08:53</t>
+  </si>
+  <si>
     <t>test01@12iwinr</t>
   </si>
   <si>
-    <t>ธนาคาร</t>
-  </si>
-  <si>
-    <t>ตั้งค่าการมองเห็น</t>
-  </si>
-  <si>
-    <t>อัพเดทการมองเห็นธนาคาร</t>
-  </si>
-  <si>
-    <t>10/11/2021 12:05</t>
-  </si>
-  <si>
-    <t>10/11/2021 12:04</t>
-  </si>
-  <si>
-    <t>10/11/2021 11:43</t>
+    <t>24/11/2021 08:10</t>
+  </si>
+  <si>
+    <t>24/11/2021 08:09</t>
+  </si>
+  <si>
+    <t>แก้ไขสิทธิ๋ : test01@12iwinr</t>
+  </si>
+  <si>
+    <t>24/11/2021 08:08</t>
+  </si>
+  <si>
+    <t>24/11/2021 08:07</t>
   </si>
 </sst>
 </file>
@@ -395,7 +731,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,16 +792,16 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,18 +811,20 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -494,20 +832,20 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -515,20 +853,20 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -536,20 +874,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -557,20 +895,1900 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79" t="s">
+        <v>80</v>
+      </c>
+      <c r="E79" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82" t="s">
+        <v>110</v>
+      </c>
+      <c r="G82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83" t="s">
+        <v>112</v>
+      </c>
+      <c r="G83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>47</v>
+      </c>
+      <c r="G85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" t="s">
+        <v>123</v>
+      </c>
+      <c r="G95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
